--- a/Code/Results/Cases/Case_3_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_143/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022909133944208</v>
+        <v>1.056089080913442</v>
       </c>
       <c r="D2">
-        <v>1.03909359795367</v>
+        <v>1.061201643151712</v>
       </c>
       <c r="E2">
-        <v>1.025744061199842</v>
+        <v>1.052397825807201</v>
       </c>
       <c r="F2">
-        <v>1.040184654318566</v>
+        <v>1.070209018951906</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051956663128464</v>
+        <v>1.048086462909066</v>
       </c>
       <c r="J2">
-        <v>1.044425580103373</v>
+        <v>1.061092539607857</v>
       </c>
       <c r="K2">
-        <v>1.050033893674851</v>
+        <v>1.063926346289904</v>
       </c>
       <c r="L2">
-        <v>1.036856022990095</v>
+        <v>1.05514666977058</v>
       </c>
       <c r="M2">
-        <v>1.051111162874323</v>
+        <v>1.072909467732615</v>
       </c>
       <c r="N2">
-        <v>1.045908784224408</v>
+        <v>1.062599412723115</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029130971847736</v>
+        <v>1.057350517688728</v>
       </c>
       <c r="D3">
-        <v>1.044153999306623</v>
+        <v>1.062247138227951</v>
       </c>
       <c r="E3">
-        <v>1.030898316298885</v>
+        <v>1.053484054537912</v>
       </c>
       <c r="F3">
-        <v>1.046180539698226</v>
+        <v>1.071487314514538</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05426786525258</v>
+        <v>1.048486027695289</v>
       </c>
       <c r="J3">
-        <v>1.048857814685694</v>
+        <v>1.062004407836305</v>
       </c>
       <c r="K3">
-        <v>1.054251451718325</v>
+        <v>1.064785833977175</v>
       </c>
       <c r="L3">
-        <v>1.041150541176201</v>
+        <v>1.056045034485927</v>
       </c>
       <c r="M3">
-        <v>1.056254756986923</v>
+        <v>1.07400293790486</v>
       </c>
       <c r="N3">
-        <v>1.050347313088221</v>
+        <v>1.063512575909041</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.033054025551307</v>
+        <v>1.058166292447056</v>
       </c>
       <c r="D4">
-        <v>1.04734761928869</v>
+        <v>1.062923206278945</v>
       </c>
       <c r="E4">
-        <v>1.034153514602556</v>
+        <v>1.054186734915481</v>
       </c>
       <c r="F4">
-        <v>1.04996786740174</v>
+        <v>1.072314474007026</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055715042734606</v>
+        <v>1.04874310838817</v>
       </c>
       <c r="J4">
-        <v>1.051648400646281</v>
+        <v>1.06259347107561</v>
       </c>
       <c r="K4">
-        <v>1.056906307032963</v>
+        <v>1.065340938875524</v>
       </c>
       <c r="L4">
-        <v>1.043856496602429</v>
+        <v>1.056625560847069</v>
       </c>
       <c r="M4">
-        <v>1.059498428216885</v>
+        <v>1.074709943750582</v>
       </c>
       <c r="N4">
-        <v>1.053141862000956</v>
+        <v>1.064102475685712</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034679802045018</v>
+        <v>1.058509136973292</v>
       </c>
       <c r="D5">
-        <v>1.048671731169332</v>
+        <v>1.063207322246103</v>
       </c>
       <c r="E5">
-        <v>1.035503723690547</v>
+        <v>1.054482099756164</v>
       </c>
       <c r="F5">
-        <v>1.051538963138403</v>
+        <v>1.072662218100135</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056312306081409</v>
+        <v>1.048850835360845</v>
       </c>
       <c r="J5">
-        <v>1.052803840431005</v>
+        <v>1.06284088122455</v>
       </c>
       <c r="K5">
-        <v>1.058005401963914</v>
+        <v>1.065574057303775</v>
       </c>
       <c r="L5">
-        <v>1.044977386345902</v>
+        <v>1.056869429984065</v>
       </c>
       <c r="M5">
-        <v>1.060842719495873</v>
+        <v>1.075007041107602</v>
       </c>
       <c r="N5">
-        <v>1.054298942642706</v>
+        <v>1.064350237185441</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03495143264987</v>
+        <v>1.058566695872436</v>
       </c>
       <c r="D6">
-        <v>1.04889299522249</v>
+        <v>1.063255020571736</v>
       </c>
       <c r="E6">
-        <v>1.035729382057724</v>
+        <v>1.054531690397861</v>
       </c>
       <c r="F6">
-        <v>1.051801548474944</v>
+        <v>1.072720606294164</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056411948767653</v>
+        <v>1.04886890270842</v>
       </c>
       <c r="J6">
-        <v>1.052996826831178</v>
+        <v>1.062882408920808</v>
       </c>
       <c r="K6">
-        <v>1.058188968575101</v>
+        <v>1.065613184435741</v>
       </c>
       <c r="L6">
-        <v>1.045164630737234</v>
+        <v>1.056910365931999</v>
       </c>
       <c r="M6">
-        <v>1.061067322387676</v>
+        <v>1.07505691761816</v>
       </c>
       <c r="N6">
-        <v>1.054492203105702</v>
+        <v>1.064391823855792</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.033075840025699</v>
+        <v>1.058170873970115</v>
       </c>
       <c r="D7">
-        <v>1.047365383681272</v>
+        <v>1.062927003053268</v>
       </c>
       <c r="E7">
-        <v>1.03417162687511</v>
+        <v>1.054190681757886</v>
       </c>
       <c r="F7">
-        <v>1.049988942048279</v>
+        <v>1.07231912055331</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055723066570922</v>
+        <v>1.048744549214486</v>
       </c>
       <c r="J7">
-        <v>1.051663908309037</v>
+        <v>1.062596777891715</v>
       </c>
       <c r="K7">
-        <v>1.056921059055349</v>
+        <v>1.065344054786592</v>
       </c>
       <c r="L7">
-        <v>1.043871538620056</v>
+        <v>1.056628820160043</v>
       </c>
       <c r="M7">
-        <v>1.059516465580999</v>
+        <v>1.074713914080113</v>
       </c>
       <c r="N7">
-        <v>1.053157391686372</v>
+        <v>1.064105787197876</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025033859960607</v>
+        <v>1.056515486109912</v>
       </c>
       <c r="D8">
-        <v>1.040821048762187</v>
+        <v>1.061555064603276</v>
       </c>
       <c r="E8">
-        <v>1.027503058638897</v>
+        <v>1.052764960616048</v>
       </c>
       <c r="F8">
-        <v>1.042230766556092</v>
+        <v>1.070641022786264</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052748024632699</v>
+        <v>1.048221801427706</v>
       </c>
       <c r="J8">
-        <v>1.045939992333126</v>
+        <v>1.061400912976637</v>
       </c>
       <c r="K8">
-        <v>1.051475068595644</v>
+        <v>1.064217030693717</v>
       </c>
       <c r="L8">
-        <v>1.038322937819938</v>
+        <v>1.05545043787923</v>
       </c>
       <c r="M8">
-        <v>1.0528675385496</v>
+        <v>1.073279124606029</v>
       </c>
       <c r="N8">
-        <v>1.047425347093233</v>
+        <v>1.062908224017451</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010018361052263</v>
+        <v>1.053594841118421</v>
       </c>
       <c r="D9">
-        <v>1.028628535540834</v>
+        <v>1.059134112584839</v>
       </c>
       <c r="E9">
-        <v>1.015097816364959</v>
+        <v>1.050251188136188</v>
       </c>
       <c r="F9">
-        <v>1.027802109580263</v>
+        <v>1.06768402874606</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047114110604887</v>
+        <v>1.047289399341699</v>
       </c>
       <c r="J9">
-        <v>1.035222238508515</v>
+        <v>1.059286089521779</v>
       </c>
       <c r="K9">
-        <v>1.041273603752399</v>
+        <v>1.062223025829058</v>
       </c>
       <c r="L9">
-        <v>1.027950600722315</v>
+        <v>1.053367966950805</v>
       </c>
       <c r="M9">
-        <v>1.040459664844585</v>
+        <v>1.070746599009125</v>
       </c>
       <c r="N9">
-        <v>1.036692372828848</v>
+        <v>1.060790397270713</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9993534539040837</v>
+        <v>1.051645122675175</v>
       </c>
       <c r="D10">
-        <v>1.019992114639386</v>
+        <v>1.057517739912281</v>
       </c>
       <c r="E10">
-        <v>1.006323257336263</v>
+        <v>1.048574245940766</v>
       </c>
       <c r="F10">
-        <v>1.017596883299341</v>
+        <v>1.065712576517219</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043062116938896</v>
+        <v>1.046660177468568</v>
       </c>
       <c r="J10">
-        <v>1.027592747391652</v>
+        <v>1.057871015379477</v>
       </c>
       <c r="K10">
-        <v>1.034009549531635</v>
+        <v>1.06088817961473</v>
       </c>
       <c r="L10">
-        <v>1.020579274314443</v>
+        <v>1.051975511698818</v>
       </c>
       <c r="M10">
-        <v>1.031655526541384</v>
+        <v>1.069055269678522</v>
       </c>
       <c r="N10">
-        <v>1.029052046959483</v>
+        <v>1.059373313560817</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.994558182935135</v>
+        <v>1.050800211760698</v>
       </c>
       <c r="D11">
-        <v>1.01611579508157</v>
+        <v>1.056817238338047</v>
       </c>
       <c r="E11">
-        <v>1.002387875367939</v>
+        <v>1.047847827708227</v>
       </c>
       <c r="F11">
-        <v>1.013019526166451</v>
+        <v>1.064858854422074</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041229045360772</v>
+        <v>1.046385897520621</v>
       </c>
       <c r="J11">
-        <v>1.024159113364519</v>
+        <v>1.057257015829935</v>
       </c>
       <c r="K11">
-        <v>1.030740058837226</v>
+        <v>1.060308846519202</v>
       </c>
       <c r="L11">
-        <v>1.017264899917808</v>
+        <v>1.051371558026366</v>
       </c>
       <c r="M11">
-        <v>1.027700020238397</v>
+        <v>1.068322170089228</v>
       </c>
       <c r="N11">
-        <v>1.025613536778188</v>
+        <v>1.058758442061488</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9927482627588136</v>
+        <v>1.050486270082796</v>
       </c>
       <c r="D12">
-        <v>1.014653879776122</v>
+        <v>1.056556948323287</v>
       </c>
       <c r="E12">
-        <v>1.000904123203845</v>
+        <v>1.047577957696499</v>
       </c>
       <c r="F12">
-        <v>1.011293640726485</v>
+        <v>1.064541730582736</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040535570088458</v>
+        <v>1.046283742753225</v>
       </c>
       <c r="J12">
-        <v>1.022862731915342</v>
+        <v>1.057028757012214</v>
       </c>
       <c r="K12">
-        <v>1.029505618408906</v>
+        <v>1.060093453627719</v>
       </c>
       <c r="L12">
-        <v>1.016014022115084</v>
+        <v>1.051147068732183</v>
       </c>
       <c r="M12">
-        <v>1.026207624407214</v>
+        <v>1.068049750086798</v>
       </c>
       <c r="N12">
-        <v>1.024315314318657</v>
+        <v>1.058529859090064</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9931378337217577</v>
+        <v>1.050553616407333</v>
       </c>
       <c r="D13">
-        <v>1.014968491111215</v>
+        <v>1.056612785637548</v>
       </c>
       <c r="E13">
-        <v>1.001223414221669</v>
+        <v>1.047635847844058</v>
       </c>
       <c r="F13">
-        <v>1.011665041570616</v>
+        <v>1.06460975537744</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040684906269794</v>
+        <v>1.046305667759459</v>
       </c>
       <c r="J13">
-        <v>1.023141784207631</v>
+        <v>1.057077728030662</v>
       </c>
       <c r="K13">
-        <v>1.029771338766211</v>
+        <v>1.06013966534412</v>
       </c>
       <c r="L13">
-        <v>1.01628325775064</v>
+        <v>1.051195229450303</v>
       </c>
       <c r="M13">
-        <v>1.026528823603463</v>
+        <v>1.068108190310074</v>
       </c>
       <c r="N13">
-        <v>1.024594762897209</v>
+        <v>1.058578899652976</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9944091736877692</v>
+        <v>1.050774263388411</v>
       </c>
       <c r="D14">
-        <v>1.015995412556767</v>
+        <v>1.056795724584581</v>
       </c>
       <c r="E14">
-        <v>1.00226568580074</v>
+        <v>1.047825521118645</v>
       </c>
       <c r="F14">
-        <v>1.012877398586206</v>
+        <v>1.0648326411575</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041171984200167</v>
+        <v>1.046377458991836</v>
       </c>
       <c r="J14">
-        <v>1.024052390871607</v>
+        <v>1.057238151815761</v>
       </c>
       <c r="K14">
-        <v>1.030638436087302</v>
+        <v>1.060291046224437</v>
       </c>
       <c r="L14">
-        <v>1.017161913672128</v>
+        <v>1.051353004824986</v>
       </c>
       <c r="M14">
-        <v>1.027577140451429</v>
+        <v>1.068299654110863</v>
       </c>
       <c r="N14">
-        <v>1.025506662727096</v>
+        <v>1.058739551258251</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9951886127000603</v>
+        <v>1.050910197370966</v>
       </c>
       <c r="D15">
-        <v>1.016625158475279</v>
+        <v>1.056908426980175</v>
       </c>
       <c r="E15">
-        <v>1.002904902535382</v>
+        <v>1.047942378930512</v>
       </c>
       <c r="F15">
-        <v>1.013620914173869</v>
+        <v>1.064969966575224</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041470395492679</v>
+        <v>1.046421655467557</v>
       </c>
       <c r="J15">
-        <v>1.024610620331181</v>
+        <v>1.057336968688051</v>
       </c>
       <c r="K15">
-        <v>1.031169989308671</v>
+        <v>1.060384290047528</v>
       </c>
       <c r="L15">
-        <v>1.017700619567034</v>
+        <v>1.051450194970984</v>
       </c>
       <c r="M15">
-        <v>1.028219924815588</v>
+        <v>1.068417606071412</v>
       </c>
       <c r="N15">
-        <v>1.026065684936532</v>
+        <v>1.058838508461833</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9996677899949836</v>
+        <v>1.05170118221691</v>
       </c>
       <c r="D16">
-        <v>1.020246365232914</v>
+        <v>1.05756421703632</v>
       </c>
       <c r="E16">
-        <v>1.006581442605676</v>
+        <v>1.0486224496048</v>
       </c>
       <c r="F16">
-        <v>1.01789717595005</v>
+        <v>1.065769233514567</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043182051477279</v>
+        <v>1.046678342025569</v>
       </c>
       <c r="J16">
-        <v>1.027817767231058</v>
+        <v>1.057911737700856</v>
       </c>
       <c r="K16">
-        <v>1.034223807084401</v>
+        <v>1.060926599721157</v>
       </c>
       <c r="L16">
-        <v>1.020796543573298</v>
+        <v>1.052015572630828</v>
       </c>
       <c r="M16">
-        <v>1.031914887503323</v>
+        <v>1.069103907213983</v>
       </c>
       <c r="N16">
-        <v>1.029277386352872</v>
+        <v>1.059414093712563</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002428572894206</v>
+        <v>1.05219716428393</v>
       </c>
       <c r="D17">
-        <v>1.022480216155407</v>
+        <v>1.057975414236879</v>
       </c>
       <c r="E17">
-        <v>1.008850196339083</v>
+        <v>1.049048960468271</v>
       </c>
       <c r="F17">
-        <v>1.020535898987262</v>
+        <v>1.066270571702469</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044234168295097</v>
+        <v>1.046838865923653</v>
       </c>
       <c r="J17">
-        <v>1.029793743469396</v>
+        <v>1.05827193534076</v>
       </c>
       <c r="K17">
-        <v>1.036105241532372</v>
+        <v>1.061266417130078</v>
       </c>
       <c r="L17">
-        <v>1.02270480881718</v>
+        <v>1.052369946875161</v>
       </c>
       <c r="M17">
-        <v>1.034193191882827</v>
+        <v>1.069534205099114</v>
       </c>
       <c r="N17">
-        <v>1.031256168704117</v>
+        <v>1.059774802874432</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00402193779589</v>
+        <v>1.052486397827992</v>
       </c>
       <c r="D18">
-        <v>1.023770106813314</v>
+        <v>1.05821520071497</v>
       </c>
       <c r="E18">
-        <v>1.010160518639015</v>
+        <v>1.049297709092122</v>
       </c>
       <c r="F18">
-        <v>1.022059870093619</v>
+        <v>1.06656298720191</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044840330696435</v>
+        <v>1.046932321008684</v>
       </c>
       <c r="J18">
-        <v>1.030933857536072</v>
+        <v>1.058481910813776</v>
       </c>
       <c r="K18">
-        <v>1.037190774787656</v>
+        <v>1.061464498124921</v>
       </c>
       <c r="L18">
-        <v>1.023806143163706</v>
+        <v>1.052576549935589</v>
       </c>
       <c r="M18">
-        <v>1.035508384080589</v>
+        <v>1.069785119078588</v>
       </c>
       <c r="N18">
-        <v>1.03239790186354</v>
+        <v>1.059985076536704</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004562418957124</v>
+        <v>1.052585008172957</v>
       </c>
       <c r="D19">
-        <v>1.024207752433581</v>
+        <v>1.058296951952796</v>
       </c>
       <c r="E19">
-        <v>1.010605143704055</v>
+        <v>1.049382521269944</v>
       </c>
       <c r="F19">
-        <v>1.022576988048762</v>
+        <v>1.066662692300451</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045045763733791</v>
+        <v>1.046964156994919</v>
       </c>
       <c r="J19">
-        <v>1.03132053849325</v>
+        <v>1.058553486447067</v>
       </c>
       <c r="K19">
-        <v>1.03755893834362</v>
+        <v>1.061532016849545</v>
       </c>
       <c r="L19">
-        <v>1.024179720143445</v>
+        <v>1.052646979774384</v>
       </c>
       <c r="M19">
-        <v>1.0359545527635</v>
+        <v>1.069870662211527</v>
       </c>
       <c r="N19">
-        <v>1.032785131952029</v>
+        <v>1.060056753815604</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002134135074141</v>
+        <v>1.052143956790268</v>
       </c>
       <c r="D20">
-        <v>1.02224190832675</v>
+        <v>1.057931302673546</v>
       </c>
       <c r="E20">
-        <v>1.0086081362537</v>
+        <v>1.049003202796627</v>
       </c>
       <c r="F20">
-        <v>1.020254368922955</v>
+        <v>1.0662167835626</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044122069368814</v>
+        <v>1.046821661420013</v>
       </c>
       <c r="J20">
-        <v>1.029583036552851</v>
+        <v>1.058233302150039</v>
       </c>
       <c r="K20">
-        <v>1.035904619163083</v>
+        <v>1.061229971271394</v>
       </c>
       <c r="L20">
-        <v>1.022501292129762</v>
+        <v>1.052331935967141</v>
       </c>
       <c r="M20">
-        <v>1.033950180070503</v>
+        <v>1.069488045623323</v>
       </c>
       <c r="N20">
-        <v>1.031045162559581</v>
+        <v>1.059736114820149</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9940356072356943</v>
+        <v>1.050709291254951</v>
       </c>
       <c r="D21">
-        <v>1.015693632408137</v>
+        <v>1.056741856196316</v>
       </c>
       <c r="E21">
-        <v>1.00195938271545</v>
+        <v>1.047769668352447</v>
       </c>
       <c r="F21">
-        <v>1.012521113571553</v>
+        <v>1.064767007244809</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041028906232799</v>
+        <v>1.046356325863272</v>
       </c>
       <c r="J21">
-        <v>1.02378483131606</v>
+        <v>1.057190916329281</v>
       </c>
       <c r="K21">
-        <v>1.030383661431103</v>
+        <v>1.060246473942894</v>
       </c>
       <c r="L21">
-        <v>1.016903728831789</v>
+        <v>1.051306548177613</v>
       </c>
       <c r="M21">
-        <v>1.02726909004116</v>
+        <v>1.068243275966097</v>
       </c>
       <c r="N21">
-        <v>1.02523872320629</v>
+        <v>1.058692248691961</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9887762313328806</v>
+        <v>1.049806655806652</v>
       </c>
       <c r="D22">
-        <v>1.011447854062154</v>
+        <v>1.055993467498566</v>
       </c>
       <c r="E22">
-        <v>0.9976510110167834</v>
+        <v>1.046993829424716</v>
       </c>
       <c r="F22">
-        <v>1.007509438600477</v>
+        <v>1.063855396130292</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039010810697494</v>
+        <v>1.046062159399923</v>
       </c>
       <c r="J22">
-        <v>1.020017075405228</v>
+        <v>1.056534414734176</v>
       </c>
       <c r="K22">
-        <v>1.026795887594364</v>
+        <v>1.059626935848169</v>
       </c>
       <c r="L22">
-        <v>1.0132691459045</v>
+        <v>1.050660954099248</v>
       </c>
       <c r="M22">
-        <v>1.022933585599109</v>
+        <v>1.06745997802377</v>
       </c>
       <c r="N22">
-        <v>1.021465616649898</v>
+        <v>1.05803481478929</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9915809672795044</v>
+        <v>1.050285218384108</v>
       </c>
       <c r="D23">
-        <v>1.013711370139367</v>
+        <v>1.056390254086029</v>
       </c>
       <c r="E23">
-        <v>0.9999476581163904</v>
+        <v>1.047405142348503</v>
       </c>
       <c r="F23">
-        <v>1.010181059337723</v>
+        <v>1.064338666903781</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040087875981309</v>
+        <v>1.04621825384785</v>
       </c>
       <c r="J23">
-        <v>1.022026539077201</v>
+        <v>1.0568825448438</v>
       </c>
       <c r="K23">
-        <v>1.02870937196917</v>
+        <v>1.059955476721759</v>
       </c>
       <c r="L23">
-        <v>1.015207316441799</v>
+        <v>1.051003280985457</v>
       </c>
       <c r="M23">
-        <v>1.025245286296013</v>
+        <v>1.067875282681215</v>
       </c>
       <c r="N23">
-        <v>1.023477933990773</v>
+        <v>1.058383439283601</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002267231085179</v>
+        <v>1.052167999165274</v>
       </c>
       <c r="D24">
-        <v>1.022349629674004</v>
+        <v>1.05795123496915</v>
       </c>
       <c r="E24">
-        <v>1.008717552856539</v>
+        <v>1.049023878805197</v>
       </c>
       <c r="F24">
-        <v>1.020381626926372</v>
+        <v>1.066241088128047</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044172745227279</v>
+        <v>1.046829435937803</v>
       </c>
       <c r="J24">
-        <v>1.029678284273438</v>
+        <v>1.05825075920204</v>
       </c>
       <c r="K24">
-        <v>1.03599530837468</v>
+        <v>1.061246439983946</v>
       </c>
       <c r="L24">
-        <v>1.022593288692044</v>
+        <v>1.052349111761385</v>
       </c>
       <c r="M24">
-        <v>1.034060028878314</v>
+        <v>1.069508903324416</v>
       </c>
       <c r="N24">
-        <v>1.031140545542856</v>
+        <v>1.059753596663166</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014008746946241</v>
+        <v>1.054350347151185</v>
       </c>
       <c r="D25">
-        <v>1.031865103268253</v>
+        <v>1.059760402864021</v>
       </c>
       <c r="E25">
-        <v>1.018388693232443</v>
+        <v>1.050901243599438</v>
       </c>
       <c r="F25">
-        <v>1.031629527320017</v>
+        <v>1.068448493795013</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048620204689681</v>
+        <v>1.047531786814117</v>
       </c>
       <c r="J25">
-        <v>1.038073686367593</v>
+        <v>1.059833729001579</v>
       </c>
       <c r="K25">
-        <v>1.04398810309213</v>
+        <v>1.062739487564774</v>
       </c>
       <c r="L25">
-        <v>1.030708100806472</v>
+        <v>1.053907058181065</v>
       </c>
       <c r="M25">
-        <v>1.043755904672468</v>
+        <v>1.07140183337328</v>
       </c>
       <c r="N25">
-        <v>1.039547870070952</v>
+        <v>1.061338814461389</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_143/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.056089080913442</v>
+        <v>1.022909133944209</v>
       </c>
       <c r="D2">
-        <v>1.061201643151712</v>
+        <v>1.039093597953671</v>
       </c>
       <c r="E2">
-        <v>1.052397825807201</v>
+        <v>1.025744061199843</v>
       </c>
       <c r="F2">
-        <v>1.070209018951906</v>
+        <v>1.040184654318567</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048086462909066</v>
+        <v>1.051956663128465</v>
       </c>
       <c r="J2">
-        <v>1.061092539607857</v>
+        <v>1.044425580103373</v>
       </c>
       <c r="K2">
-        <v>1.063926346289904</v>
+        <v>1.050033893674852</v>
       </c>
       <c r="L2">
-        <v>1.05514666977058</v>
+        <v>1.036856022990096</v>
       </c>
       <c r="M2">
-        <v>1.072909467732615</v>
+        <v>1.051111162874324</v>
       </c>
       <c r="N2">
-        <v>1.062599412723115</v>
+        <v>1.045908784224408</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.057350517688728</v>
+        <v>1.029130971847735</v>
       </c>
       <c r="D3">
-        <v>1.062247138227951</v>
+        <v>1.044153999306622</v>
       </c>
       <c r="E3">
-        <v>1.053484054537912</v>
+        <v>1.030898316298885</v>
       </c>
       <c r="F3">
-        <v>1.071487314514538</v>
+        <v>1.046180539698224</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048486027695289</v>
+        <v>1.054267865252579</v>
       </c>
       <c r="J3">
-        <v>1.062004407836305</v>
+        <v>1.048857814685694</v>
       </c>
       <c r="K3">
-        <v>1.064785833977175</v>
+        <v>1.054251451718324</v>
       </c>
       <c r="L3">
-        <v>1.056045034485927</v>
+        <v>1.041150541176201</v>
       </c>
       <c r="M3">
-        <v>1.07400293790486</v>
+        <v>1.056254756986921</v>
       </c>
       <c r="N3">
-        <v>1.063512575909041</v>
+        <v>1.05034731308822</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.058166292447056</v>
+        <v>1.033054025551309</v>
       </c>
       <c r="D4">
-        <v>1.062923206278945</v>
+        <v>1.047347619288692</v>
       </c>
       <c r="E4">
-        <v>1.054186734915481</v>
+        <v>1.034153514602557</v>
       </c>
       <c r="F4">
-        <v>1.072314474007026</v>
+        <v>1.049967867401742</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04874310838817</v>
+        <v>1.055715042734607</v>
       </c>
       <c r="J4">
-        <v>1.06259347107561</v>
+        <v>1.051648400646283</v>
       </c>
       <c r="K4">
-        <v>1.065340938875524</v>
+        <v>1.056906307032964</v>
       </c>
       <c r="L4">
-        <v>1.056625560847069</v>
+        <v>1.04385649660243</v>
       </c>
       <c r="M4">
-        <v>1.074709943750582</v>
+        <v>1.059498428216886</v>
       </c>
       <c r="N4">
-        <v>1.064102475685712</v>
+        <v>1.053141862000958</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.058509136973292</v>
+        <v>1.034679802045017</v>
       </c>
       <c r="D5">
-        <v>1.063207322246103</v>
+        <v>1.048671731169331</v>
       </c>
       <c r="E5">
-        <v>1.054482099756164</v>
+        <v>1.035503723690545</v>
       </c>
       <c r="F5">
-        <v>1.072662218100135</v>
+        <v>1.051538963138403</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048850835360845</v>
+        <v>1.056312306081409</v>
       </c>
       <c r="J5">
-        <v>1.06284088122455</v>
+        <v>1.052803840431004</v>
       </c>
       <c r="K5">
-        <v>1.065574057303775</v>
+        <v>1.058005401963913</v>
       </c>
       <c r="L5">
-        <v>1.056869429984065</v>
+        <v>1.044977386345901</v>
       </c>
       <c r="M5">
-        <v>1.075007041107602</v>
+        <v>1.060842719495873</v>
       </c>
       <c r="N5">
-        <v>1.064350237185441</v>
+        <v>1.054298942642705</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.058566695872436</v>
+        <v>1.034951432649872</v>
       </c>
       <c r="D6">
-        <v>1.063255020571736</v>
+        <v>1.048892995222492</v>
       </c>
       <c r="E6">
-        <v>1.054531690397861</v>
+        <v>1.035729382057726</v>
       </c>
       <c r="F6">
-        <v>1.072720606294164</v>
+        <v>1.051801548474946</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04886890270842</v>
+        <v>1.056411948767654</v>
       </c>
       <c r="J6">
-        <v>1.062882408920808</v>
+        <v>1.05299682683118</v>
       </c>
       <c r="K6">
-        <v>1.065613184435741</v>
+        <v>1.058188968575103</v>
       </c>
       <c r="L6">
-        <v>1.056910365931999</v>
+        <v>1.045164630737236</v>
       </c>
       <c r="M6">
-        <v>1.07505691761816</v>
+        <v>1.061067322387678</v>
       </c>
       <c r="N6">
-        <v>1.064391823855792</v>
+        <v>1.054492203105704</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058170873970115</v>
+        <v>1.033075840025699</v>
       </c>
       <c r="D7">
-        <v>1.062927003053268</v>
+        <v>1.047365383681273</v>
       </c>
       <c r="E7">
-        <v>1.054190681757886</v>
+        <v>1.03417162687511</v>
       </c>
       <c r="F7">
-        <v>1.07231912055331</v>
+        <v>1.049988942048279</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048744549214486</v>
+        <v>1.055723066570922</v>
       </c>
       <c r="J7">
-        <v>1.062596777891715</v>
+        <v>1.051663908309038</v>
       </c>
       <c r="K7">
-        <v>1.065344054786592</v>
+        <v>1.056921059055349</v>
       </c>
       <c r="L7">
-        <v>1.056628820160043</v>
+        <v>1.043871538620056</v>
       </c>
       <c r="M7">
-        <v>1.074713914080113</v>
+        <v>1.059516465581</v>
       </c>
       <c r="N7">
-        <v>1.064105787197876</v>
+        <v>1.053157391686373</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.056515486109912</v>
+        <v>1.025033859960607</v>
       </c>
       <c r="D8">
-        <v>1.061555064603276</v>
+        <v>1.040821048762188</v>
       </c>
       <c r="E8">
-        <v>1.052764960616048</v>
+        <v>1.027503058638898</v>
       </c>
       <c r="F8">
-        <v>1.070641022786264</v>
+        <v>1.042230766556093</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048221801427706</v>
+        <v>1.0527480246327</v>
       </c>
       <c r="J8">
-        <v>1.061400912976637</v>
+        <v>1.045939992333127</v>
       </c>
       <c r="K8">
-        <v>1.064217030693717</v>
+        <v>1.051475068595645</v>
       </c>
       <c r="L8">
-        <v>1.05545043787923</v>
+        <v>1.038322937819938</v>
       </c>
       <c r="M8">
-        <v>1.073279124606029</v>
+        <v>1.052867538549601</v>
       </c>
       <c r="N8">
-        <v>1.062908224017451</v>
+        <v>1.047425347093234</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.053594841118421</v>
+        <v>1.010018361052263</v>
       </c>
       <c r="D9">
-        <v>1.059134112584839</v>
+        <v>1.028628535540834</v>
       </c>
       <c r="E9">
-        <v>1.050251188136188</v>
+        <v>1.015097816364959</v>
       </c>
       <c r="F9">
-        <v>1.06768402874606</v>
+        <v>1.027802109580263</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047289399341699</v>
+        <v>1.047114110604887</v>
       </c>
       <c r="J9">
-        <v>1.059286089521779</v>
+        <v>1.035222238508515</v>
       </c>
       <c r="K9">
-        <v>1.062223025829058</v>
+        <v>1.0412736037524</v>
       </c>
       <c r="L9">
-        <v>1.053367966950805</v>
+        <v>1.027950600722315</v>
       </c>
       <c r="M9">
-        <v>1.070746599009125</v>
+        <v>1.040459664844586</v>
       </c>
       <c r="N9">
-        <v>1.060790397270713</v>
+        <v>1.036692372828848</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051645122675175</v>
+        <v>0.9993534539040827</v>
       </c>
       <c r="D10">
-        <v>1.057517739912281</v>
+        <v>1.019992114639385</v>
       </c>
       <c r="E10">
-        <v>1.048574245940766</v>
+        <v>1.006323257336261</v>
       </c>
       <c r="F10">
-        <v>1.065712576517219</v>
+        <v>1.01759688329934</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046660177468568</v>
+        <v>1.043062116938895</v>
       </c>
       <c r="J10">
-        <v>1.057871015379477</v>
+        <v>1.027592747391651</v>
       </c>
       <c r="K10">
-        <v>1.06088817961473</v>
+        <v>1.034009549531634</v>
       </c>
       <c r="L10">
-        <v>1.051975511698818</v>
+        <v>1.020579274314442</v>
       </c>
       <c r="M10">
-        <v>1.069055269678522</v>
+        <v>1.031655526541383</v>
       </c>
       <c r="N10">
-        <v>1.059373313560817</v>
+        <v>1.029052046959483</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050800211760698</v>
+        <v>0.994558182935135</v>
       </c>
       <c r="D11">
-        <v>1.056817238338047</v>
+        <v>1.01611579508157</v>
       </c>
       <c r="E11">
-        <v>1.047847827708227</v>
+        <v>1.002387875367939</v>
       </c>
       <c r="F11">
-        <v>1.064858854422074</v>
+        <v>1.013019526166451</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046385897520621</v>
+        <v>1.041229045360772</v>
       </c>
       <c r="J11">
-        <v>1.057257015829935</v>
+        <v>1.024159113364519</v>
       </c>
       <c r="K11">
-        <v>1.060308846519202</v>
+        <v>1.030740058837226</v>
       </c>
       <c r="L11">
-        <v>1.051371558026366</v>
+        <v>1.017264899917808</v>
       </c>
       <c r="M11">
-        <v>1.068322170089228</v>
+        <v>1.027700020238398</v>
       </c>
       <c r="N11">
-        <v>1.058758442061488</v>
+        <v>1.025613536778188</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050486270082796</v>
+        <v>0.9927482627588133</v>
       </c>
       <c r="D12">
-        <v>1.056556948323287</v>
+        <v>1.014653879776121</v>
       </c>
       <c r="E12">
-        <v>1.047577957696499</v>
+        <v>1.000904123203844</v>
       </c>
       <c r="F12">
-        <v>1.064541730582736</v>
+        <v>1.011293640726485</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046283742753225</v>
+        <v>1.040535570088458</v>
       </c>
       <c r="J12">
-        <v>1.057028757012214</v>
+        <v>1.022862731915342</v>
       </c>
       <c r="K12">
-        <v>1.060093453627719</v>
+        <v>1.029505618408906</v>
       </c>
       <c r="L12">
-        <v>1.051147068732183</v>
+        <v>1.016014022115083</v>
       </c>
       <c r="M12">
-        <v>1.068049750086798</v>
+        <v>1.026207624407214</v>
       </c>
       <c r="N12">
-        <v>1.058529859090064</v>
+        <v>1.024315314318656</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050553616407333</v>
+        <v>0.9931378337217581</v>
       </c>
       <c r="D13">
-        <v>1.056612785637548</v>
+        <v>1.014968491111216</v>
       </c>
       <c r="E13">
-        <v>1.047635847844058</v>
+        <v>1.001223414221669</v>
       </c>
       <c r="F13">
-        <v>1.06460975537744</v>
+        <v>1.011665041570616</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046305667759459</v>
+        <v>1.040684906269794</v>
       </c>
       <c r="J13">
-        <v>1.057077728030662</v>
+        <v>1.023141784207632</v>
       </c>
       <c r="K13">
-        <v>1.06013966534412</v>
+        <v>1.029771338766212</v>
       </c>
       <c r="L13">
-        <v>1.051195229450303</v>
+        <v>1.01628325775064</v>
       </c>
       <c r="M13">
-        <v>1.068108190310074</v>
+        <v>1.026528823603463</v>
       </c>
       <c r="N13">
-        <v>1.058578899652976</v>
+        <v>1.02459476289721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050774263388411</v>
+        <v>0.9944091736877689</v>
       </c>
       <c r="D14">
-        <v>1.056795724584581</v>
+        <v>1.015995412556766</v>
       </c>
       <c r="E14">
-        <v>1.047825521118645</v>
+        <v>1.002265685800739</v>
       </c>
       <c r="F14">
-        <v>1.0648326411575</v>
+        <v>1.012877398586206</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046377458991836</v>
+        <v>1.041171984200167</v>
       </c>
       <c r="J14">
-        <v>1.057238151815761</v>
+        <v>1.024052390871607</v>
       </c>
       <c r="K14">
-        <v>1.060291046224437</v>
+        <v>1.030638436087302</v>
       </c>
       <c r="L14">
-        <v>1.051353004824986</v>
+        <v>1.017161913672127</v>
       </c>
       <c r="M14">
-        <v>1.068299654110863</v>
+        <v>1.027577140451429</v>
       </c>
       <c r="N14">
-        <v>1.058739551258251</v>
+        <v>1.025506662727095</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050910197370966</v>
+        <v>0.9951886127000613</v>
       </c>
       <c r="D15">
-        <v>1.056908426980175</v>
+        <v>1.01662515847528</v>
       </c>
       <c r="E15">
-        <v>1.047942378930512</v>
+        <v>1.002904902535383</v>
       </c>
       <c r="F15">
-        <v>1.064969966575224</v>
+        <v>1.01362091417387</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046421655467557</v>
+        <v>1.041470395492679</v>
       </c>
       <c r="J15">
-        <v>1.057336968688051</v>
+        <v>1.024610620331182</v>
       </c>
       <c r="K15">
-        <v>1.060384290047528</v>
+        <v>1.031169989308672</v>
       </c>
       <c r="L15">
-        <v>1.051450194970984</v>
+        <v>1.017700619567035</v>
       </c>
       <c r="M15">
-        <v>1.068417606071412</v>
+        <v>1.028219924815589</v>
       </c>
       <c r="N15">
-        <v>1.058838508461833</v>
+        <v>1.026065684936533</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05170118221691</v>
+        <v>0.999667789994983</v>
       </c>
       <c r="D16">
-        <v>1.05756421703632</v>
+        <v>1.020246365232913</v>
       </c>
       <c r="E16">
-        <v>1.0486224496048</v>
+        <v>1.006581442605675</v>
       </c>
       <c r="F16">
-        <v>1.065769233514567</v>
+        <v>1.017897175950049</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046678342025569</v>
+        <v>1.043182051477279</v>
       </c>
       <c r="J16">
-        <v>1.057911737700856</v>
+        <v>1.027817767231057</v>
       </c>
       <c r="K16">
-        <v>1.060926599721157</v>
+        <v>1.0342238070844</v>
       </c>
       <c r="L16">
-        <v>1.052015572630828</v>
+        <v>1.020796543573297</v>
       </c>
       <c r="M16">
-        <v>1.069103907213983</v>
+        <v>1.031914887503322</v>
       </c>
       <c r="N16">
-        <v>1.059414093712563</v>
+        <v>1.029277386352871</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05219716428393</v>
+        <v>1.002428572894205</v>
       </c>
       <c r="D17">
-        <v>1.057975414236879</v>
+        <v>1.022480216155406</v>
       </c>
       <c r="E17">
-        <v>1.049048960468271</v>
+        <v>1.008850196339082</v>
       </c>
       <c r="F17">
-        <v>1.066270571702469</v>
+        <v>1.020535898987261</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046838865923653</v>
+        <v>1.044234168295096</v>
       </c>
       <c r="J17">
-        <v>1.05827193534076</v>
+        <v>1.029793743469396</v>
       </c>
       <c r="K17">
-        <v>1.061266417130078</v>
+        <v>1.036105241532371</v>
       </c>
       <c r="L17">
-        <v>1.052369946875161</v>
+        <v>1.02270480881718</v>
       </c>
       <c r="M17">
-        <v>1.069534205099114</v>
+        <v>1.034193191882826</v>
       </c>
       <c r="N17">
-        <v>1.059774802874432</v>
+        <v>1.031256168704116</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.052486397827992</v>
+        <v>1.00402193779589</v>
       </c>
       <c r="D18">
-        <v>1.05821520071497</v>
+        <v>1.023770106813314</v>
       </c>
       <c r="E18">
-        <v>1.049297709092122</v>
+        <v>1.010160518639015</v>
       </c>
       <c r="F18">
-        <v>1.06656298720191</v>
+        <v>1.022059870093618</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046932321008684</v>
+        <v>1.044840330696435</v>
       </c>
       <c r="J18">
-        <v>1.058481910813776</v>
+        <v>1.030933857536073</v>
       </c>
       <c r="K18">
-        <v>1.061464498124921</v>
+        <v>1.037190774787656</v>
       </c>
       <c r="L18">
-        <v>1.052576549935589</v>
+        <v>1.023806143163706</v>
       </c>
       <c r="M18">
-        <v>1.069785119078588</v>
+        <v>1.035508384080589</v>
       </c>
       <c r="N18">
-        <v>1.059985076536704</v>
+        <v>1.03239790186354</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.052585008172957</v>
+        <v>1.004562418957123</v>
       </c>
       <c r="D19">
-        <v>1.058296951952796</v>
+        <v>1.02420775243358</v>
       </c>
       <c r="E19">
-        <v>1.049382521269944</v>
+        <v>1.010605143704053</v>
       </c>
       <c r="F19">
-        <v>1.066662692300451</v>
+        <v>1.02257698804876</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046964156994919</v>
+        <v>1.04504576373379</v>
       </c>
       <c r="J19">
-        <v>1.058553486447067</v>
+        <v>1.031320538493248</v>
       </c>
       <c r="K19">
-        <v>1.061532016849545</v>
+        <v>1.037558938343618</v>
       </c>
       <c r="L19">
-        <v>1.052646979774384</v>
+        <v>1.024179720143443</v>
       </c>
       <c r="M19">
-        <v>1.069870662211527</v>
+        <v>1.035954552763498</v>
       </c>
       <c r="N19">
-        <v>1.060056753815604</v>
+        <v>1.032785131952028</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052143956790268</v>
+        <v>1.002134135074142</v>
       </c>
       <c r="D20">
-        <v>1.057931302673546</v>
+        <v>1.02224190832675</v>
       </c>
       <c r="E20">
-        <v>1.049003202796627</v>
+        <v>1.0086081362537</v>
       </c>
       <c r="F20">
-        <v>1.0662167835626</v>
+        <v>1.020254368922955</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046821661420013</v>
+        <v>1.044122069368814</v>
       </c>
       <c r="J20">
-        <v>1.058233302150039</v>
+        <v>1.029583036552852</v>
       </c>
       <c r="K20">
-        <v>1.061229971271394</v>
+        <v>1.035904619163083</v>
       </c>
       <c r="L20">
-        <v>1.052331935967141</v>
+        <v>1.022501292129762</v>
       </c>
       <c r="M20">
-        <v>1.069488045623323</v>
+        <v>1.033950180070504</v>
       </c>
       <c r="N20">
-        <v>1.059736114820149</v>
+        <v>1.031045162559581</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050709291254951</v>
+        <v>0.9940356072356946</v>
       </c>
       <c r="D21">
-        <v>1.056741856196316</v>
+        <v>1.015693632408137</v>
       </c>
       <c r="E21">
-        <v>1.047769668352447</v>
+        <v>1.00195938271545</v>
       </c>
       <c r="F21">
-        <v>1.064767007244809</v>
+        <v>1.012521113571554</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046356325863272</v>
+        <v>1.0410289062328</v>
       </c>
       <c r="J21">
-        <v>1.057190916329281</v>
+        <v>1.02378483131606</v>
       </c>
       <c r="K21">
-        <v>1.060246473942894</v>
+        <v>1.030383661431103</v>
       </c>
       <c r="L21">
-        <v>1.051306548177613</v>
+        <v>1.016903728831789</v>
       </c>
       <c r="M21">
-        <v>1.068243275966097</v>
+        <v>1.027269090041161</v>
       </c>
       <c r="N21">
-        <v>1.058692248691961</v>
+        <v>1.025238723206291</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049806655806652</v>
+        <v>0.9887762313328795</v>
       </c>
       <c r="D22">
-        <v>1.055993467498566</v>
+        <v>1.011447854062153</v>
       </c>
       <c r="E22">
-        <v>1.046993829424716</v>
+        <v>0.9976510110167819</v>
       </c>
       <c r="F22">
-        <v>1.063855396130292</v>
+        <v>1.007509438600476</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046062159399923</v>
+        <v>1.039010810697493</v>
       </c>
       <c r="J22">
-        <v>1.056534414734176</v>
+        <v>1.020017075405227</v>
       </c>
       <c r="K22">
-        <v>1.059626935848169</v>
+        <v>1.026795887594363</v>
       </c>
       <c r="L22">
-        <v>1.050660954099248</v>
+        <v>1.013269145904498</v>
       </c>
       <c r="M22">
-        <v>1.06745997802377</v>
+        <v>1.022933585599108</v>
       </c>
       <c r="N22">
-        <v>1.05803481478929</v>
+        <v>1.021465616649896</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050285218384108</v>
+        <v>0.9915809672795018</v>
       </c>
       <c r="D23">
-        <v>1.056390254086029</v>
+        <v>1.013711370139365</v>
       </c>
       <c r="E23">
-        <v>1.047405142348503</v>
+        <v>0.9999476581163876</v>
       </c>
       <c r="F23">
-        <v>1.064338666903781</v>
+        <v>1.010181059337721</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04621825384785</v>
+        <v>1.040087875981308</v>
       </c>
       <c r="J23">
-        <v>1.0568825448438</v>
+        <v>1.022026539077198</v>
       </c>
       <c r="K23">
-        <v>1.059955476721759</v>
+        <v>1.028709371969168</v>
       </c>
       <c r="L23">
-        <v>1.051003280985457</v>
+        <v>1.015207316441797</v>
       </c>
       <c r="M23">
-        <v>1.067875282681215</v>
+        <v>1.025245286296012</v>
       </c>
       <c r="N23">
-        <v>1.058383439283601</v>
+        <v>1.02347793399077</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052167999165274</v>
+        <v>1.002267231085176</v>
       </c>
       <c r="D24">
-        <v>1.05795123496915</v>
+        <v>1.022349629674001</v>
       </c>
       <c r="E24">
-        <v>1.049023878805197</v>
+        <v>1.008717552856537</v>
       </c>
       <c r="F24">
-        <v>1.066241088128047</v>
+        <v>1.020381626926369</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046829435937803</v>
+        <v>1.044172745227278</v>
       </c>
       <c r="J24">
-        <v>1.05825075920204</v>
+        <v>1.029678284273435</v>
       </c>
       <c r="K24">
-        <v>1.061246439983946</v>
+        <v>1.035995308374677</v>
       </c>
       <c r="L24">
-        <v>1.052349111761385</v>
+        <v>1.022593288692041</v>
       </c>
       <c r="M24">
-        <v>1.069508903324416</v>
+        <v>1.034060028878311</v>
       </c>
       <c r="N24">
-        <v>1.059753596663166</v>
+        <v>1.031140545542854</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.054350347151185</v>
+        <v>1.01400874694624</v>
       </c>
       <c r="D25">
-        <v>1.059760402864021</v>
+        <v>1.031865103268252</v>
       </c>
       <c r="E25">
-        <v>1.050901243599438</v>
+        <v>1.018388693232442</v>
       </c>
       <c r="F25">
-        <v>1.068448493795013</v>
+        <v>1.031629527320016</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047531786814117</v>
+        <v>1.04862020468968</v>
       </c>
       <c r="J25">
-        <v>1.059833729001579</v>
+        <v>1.038073686367593</v>
       </c>
       <c r="K25">
-        <v>1.062739487564774</v>
+        <v>1.043988103092129</v>
       </c>
       <c r="L25">
-        <v>1.053907058181065</v>
+        <v>1.030708100806471</v>
       </c>
       <c r="M25">
-        <v>1.07140183337328</v>
+        <v>1.043755904672467</v>
       </c>
       <c r="N25">
-        <v>1.061338814461389</v>
+        <v>1.039547870070951</v>
       </c>
     </row>
   </sheetData>
